--- a/Day12Excel/Lab12.xlsx
+++ b/Day12Excel/Lab12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveAugie\OneDrive - Augustana College\Study\MATH440\Day12Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918F7A30-A6BE-494A-853B-D00E950A20CE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D899F6F1-0FD4-4780-B073-BCEED508FCB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{69BFF666-3B79-4246-8EB5-46E9A849F946}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{69BFF666-3B79-4246-8EB5-46E9A849F946}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1472,7 +1472,7 @@
         <v>3.4631025517370002</v>
       </c>
       <c r="E4">
-        <f>B4^(B4/2)</f>
+        <f t="shared" ref="E4:E18" si="0">B4^(B4/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F4">
@@ -1506,701 +1506,701 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>A4/2</f>
+        <f t="shared" ref="A5:A18" si="1">A4/2</f>
         <v>0.25</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B18" si="0">$B$1</f>
+        <f t="shared" ref="B5:B18" si="2">$B$1</f>
         <v>2.1</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C18" si="1">A5+B5</f>
+        <f t="shared" ref="C5:C18" si="3">A5+B5</f>
         <v>2.35</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D18" si="2">C5^(C5/2)</f>
+        <f t="shared" ref="D5:D18" si="4">C5^(C5/2)</f>
         <v>2.7290075562217</v>
       </c>
       <c r="E5">
-        <f>B5^(B5/2)</f>
+        <f t="shared" si="0"/>
         <v>2.1793664427402386</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F18" si="3">D5-E5</f>
+        <f t="shared" ref="F5:F18" si="5">D5-E5</f>
         <v>0.54964111348146139</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G18" si="4">(D5-E5)/A5</f>
+        <f t="shared" ref="G5:G18" si="6">(D5-E5)/A5</f>
         <v>2.1985644539258455</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H18" si="5">B5-A5</f>
+        <f t="shared" ref="H5:H18" si="7">B5-A5</f>
         <v>1.85</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I18" si="6">H5^(H5/2)</f>
+        <f t="shared" ref="I5:I18" si="8">H5^(H5/2)</f>
         <v>1.7665821942272544</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J18" si="7">E5-I5</f>
+        <f t="shared" ref="J5:J18" si="9">E5-I5</f>
         <v>0.41278424851298423</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K18" si="8">(E5-I5)/A5</f>
+        <f t="shared" ref="K5:K18" si="10">(E5-I5)/A5</f>
         <v>1.6511369940519369</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L18" si="9">(G5+K5)/2</f>
+        <f t="shared" ref="L5:L18" si="11">(G5+K5)/2</f>
         <v>1.9248507239888912</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5/2</f>
+        <f t="shared" si="1"/>
         <v>0.125</v>
       </c>
       <c r="B6">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>2.2250000000000001</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>2.4344712048668842</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="1"/>
-        <v>2.2250000000000001</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>2.4344712048668842</v>
-      </c>
-      <c r="E6">
-        <f>B6^(B6/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.25510476212664557</v>
       </c>
       <c r="G6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.0408380970131645</v>
       </c>
       <c r="H6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9750000000000001</v>
       </c>
       <c r="I6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.9582697316388022</v>
       </c>
       <c r="J6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22109671110143636</v>
       </c>
       <c r="K6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7687736888114909</v>
       </c>
       <c r="L6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9048058929123277</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6/2</f>
+        <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
       <c r="B7">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="3"/>
+        <v>2.1625000000000001</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="4"/>
+        <v>2.3023497636964767</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>2.1625000000000001</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>2.3023497636964767</v>
-      </c>
-      <c r="E7">
-        <f>B7^(B7/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.1229833209562381</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9677331352998095</v>
       </c>
       <c r="H7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0375000000000001</v>
       </c>
       <c r="I7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.064872297296596</v>
       </c>
       <c r="J7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11449414544364256</v>
       </c>
       <c r="K7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8319063270982809</v>
       </c>
       <c r="L7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8998197311990452</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7/2</f>
+        <f t="shared" si="1"/>
         <v>3.125E-2</v>
       </c>
       <c r="B8">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="3"/>
+        <v>2.1312500000000001</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="4"/>
+        <v>2.2397576498817648</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>2.1312500000000001</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>2.2397576498817648</v>
-      </c>
-      <c r="E8">
-        <f>B8^(B8/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.0391207141526237E-2</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9325186285288396</v>
       </c>
       <c r="H8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0687500000000001</v>
       </c>
       <c r="I8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.121096727898482</v>
       </c>
       <c r="J8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.8269714841756581E-2</v>
       </c>
       <c r="K8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8646308749362106</v>
       </c>
       <c r="L8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8985747517325251</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8/2</f>
+        <f t="shared" si="1"/>
         <v>1.5625E-2</v>
       </c>
       <c r="B9">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>2.1156250000000001</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>2.2092919730523159</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>2.1156250000000001</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>2.2092919730523159</v>
-      </c>
-      <c r="E9">
-        <f>B9^(B9/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.9925530312077342E-2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9152339399729499</v>
       </c>
       <c r="H9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0843750000000001</v>
       </c>
       <c r="I9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1499712354161562</v>
       </c>
       <c r="J9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.9395207324082406E-2</v>
       </c>
       <c r="K9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.881293268741274</v>
       </c>
       <c r="L9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8982636043571119</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9/2</f>
+        <f t="shared" si="1"/>
         <v>7.8125E-3</v>
       </c>
       <c r="B10">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>2.1078125000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>2.1942623082955297</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="1"/>
-        <v>2.1078125000000001</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>2.1942623082955297</v>
-      </c>
-      <c r="E10">
-        <f>B10^(B10/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4895865555291099E-2</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9066707910772607</v>
       </c>
       <c r="H10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0921875000000001</v>
       </c>
       <c r="I10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1646031548016955</v>
       </c>
       <c r="J10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.476328793854309E-2</v>
       </c>
       <c r="K10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8897008561335156</v>
       </c>
       <c r="L10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8981858236053881</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10/2</f>
+        <f t="shared" si="1"/>
         <v>3.90625E-3</v>
       </c>
       <c r="B11">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>2.1039062500000001</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>2.1867977272616939</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="1"/>
-        <v>2.1039062500000001</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>2.1867977272616939</v>
-      </c>
-      <c r="E11">
-        <f>B11^(B11/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7.4312845214552503E-3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9024088374925441</v>
       </c>
       <c r="H11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0960937500000001</v>
       </c>
       <c r="I11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1719683024273326</v>
       </c>
       <c r="J11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.3981403129059764E-3</v>
       </c>
       <c r="K11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.89392392010393</v>
       </c>
       <c r="L11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.898166378798237</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>A11/2</f>
+        <f t="shared" si="1"/>
         <v>1.953125E-3</v>
       </c>
       <c r="B12">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>2.1019531250000001</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>2.1830779324742955</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="1"/>
-        <v>2.1019531250000001</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>2.1830779324742955</v>
-      </c>
-      <c r="E12">
-        <f>B12^(B12/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.7114897340568831E-3</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.9002827438371241</v>
       </c>
       <c r="H12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0980468750000001</v>
       </c>
       <c r="I12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1756632390460919</v>
       </c>
       <c r="J12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.7032036941466728E-3</v>
       </c>
       <c r="K12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8960402914030965</v>
       </c>
       <c r="L12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8981615176201103</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>A12/2</f>
+        <f t="shared" si="1"/>
         <v>9.765625E-4</v>
       </c>
       <c r="B13">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>2.1009765625000001</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>2.1812211506650869</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C13">
-        <f t="shared" si="1"/>
-        <v>2.1009765625000001</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>2.1812211506650869</v>
-      </c>
-      <c r="E13">
-        <f>B13^(B13/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.85470792484832E-3</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8992209150446797</v>
       </c>
       <c r="H13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0990234375000001</v>
       </c>
       <c r="I13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1775138063246038</v>
       </c>
       <c r="J13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.852636415634823E-3</v>
       </c>
       <c r="K13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8970996896100587</v>
       </c>
       <c r="L13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8981603023273692</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>A13/2</f>
+        <f t="shared" si="1"/>
         <v>4.8828125E-4</v>
       </c>
       <c r="B14">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>2.1004882812500001</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>2.1802935376156363</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="1"/>
-        <v>2.1004882812500001</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>2.1802935376156363</v>
-      </c>
-      <c r="E14">
-        <f>B14^(B14/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9.2709487539766045E-4</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8986903048144086</v>
       </c>
       <c r="H14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0995117187500001</v>
       </c>
       <c r="I14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1784398657420971</v>
       </c>
       <c r="J14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.2657699814147065E-4</v>
       </c>
       <c r="K14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8976296921937319</v>
       </c>
       <c r="L14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8981599985040702</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>A14/2</f>
+        <f t="shared" si="1"/>
         <v>2.44140625E-4</v>
       </c>
       <c r="B15">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>2.1002441406250001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>2.1798299254247353</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C15">
-        <f t="shared" si="1"/>
-        <v>2.1002441406250001</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>2.1798299254247353</v>
-      </c>
-      <c r="E15">
-        <f>B15^(B15/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.6348268449669661E-4</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8984250756984693</v>
       </c>
       <c r="H15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0997558593750001</v>
       </c>
       <c r="I15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1789030895250532</v>
       </c>
       <c r="J15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.6335321518542472E-4</v>
       </c>
       <c r="K15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8978947693994996</v>
       </c>
       <c r="L15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8981599225489845</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>A15/2</f>
+        <f t="shared" si="1"/>
         <v>1.220703125E-4</v>
       </c>
       <c r="B16">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>2.1001220703125001</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>2.1795981678965051</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C16">
-        <f t="shared" si="1"/>
-        <v>2.1001220703125001</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>2.1795981678965051</v>
-      </c>
-      <c r="E16">
-        <f>B16^(B16/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3172515626646017E-4</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8982924801348418</v>
       </c>
       <c r="H16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0998779296875001</v>
       </c>
       <c r="I16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1791347499513001</v>
       </c>
       <c r="J16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.3169278893853118E-4</v>
       </c>
       <c r="K16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8980273269844474</v>
       </c>
       <c r="L16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8981599035596446</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>A16/2</f>
+        <f t="shared" si="1"/>
         <v>6.103515625E-5</v>
       </c>
       <c r="B17">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>2.1000610351562501</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>2.179482301272166</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
-        <v>2.1000610351562501</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>2.179482301272166</v>
-      </c>
-      <c r="E17">
-        <f>B17^(B17/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1585853192741524E-4</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8982261870987713</v>
       </c>
       <c r="H17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0999389648437501</v>
       </c>
       <c r="I17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1792505923001433</v>
       </c>
       <c r="J17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1585044009532197E-4</v>
       </c>
       <c r="K17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8980936105217552</v>
       </c>
       <c r="L17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8981598988102633</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>A17/2</f>
+        <f t="shared" si="1"/>
         <v>3.0517578125E-5</v>
       </c>
       <c r="B18">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>2.1000305175781251</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>2.1794243709946874</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="0"/>
-        <v>2.1</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
-        <v>2.1000305175781251</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>2.1794243709946874</v>
-      </c>
-      <c r="E18">
-        <f>B18^(B18/2)</f>
         <v>2.1793664427402386</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.7928254448835759E-5</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8981930417794501</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0999694824218751</v>
       </c>
       <c r="I18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.1793085165087485</v>
       </c>
       <c r="J18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.7926231490146307E-5</v>
       </c>
       <c r="K18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.8981267534691142</v>
       </c>
       <c r="L18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.8981598976242822</v>
       </c>
     </row>
@@ -2213,7 +2213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9637D97D-24B5-4946-A7FB-2CFB7168B190}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
@@ -2328,53 +2328,53 @@
         <v>0.01</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B18" si="0">$B$1</f>
+        <f t="shared" ref="B5:B17" si="0">$B$1</f>
         <v>3.5</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C18" si="1">A5+B5</f>
+        <f t="shared" ref="C5:C17" si="1">A5+B5</f>
         <v>3.51</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D18" si="2">C5^(SQRT(C5/3))</f>
+        <f t="shared" ref="D5:D17" si="2">C5^(SQRT(C5/3))</f>
         <v>3.8890169033912789</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E18" si="3">B5^(SQRT(B5/3))</f>
+        <f t="shared" ref="E5:E17" si="3">B5^(SQRT(B5/3))</f>
         <v>3.8695516949408235</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F18" si="4">D5-E5</f>
+        <f t="shared" ref="F5:F17" si="4">D5-E5</f>
         <v>1.9465208450455407E-2</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G18" si="5">(D5-E5)/A5</f>
+        <f t="shared" ref="G5:G17" si="5">(D5-E5)/A5</f>
         <v>1.9465208450455407</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H18" si="6">B5-A5</f>
+        <f t="shared" ref="H5:H17" si="6">B5-A5</f>
         <v>3.49</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I18" si="7">H5^(SQRT(H5/3))</f>
+        <f t="shared" ref="I5:I17" si="7">H5^(SQRT(H5/3))</f>
         <v>3.8501732809554401</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J18" si="8">E5-I5</f>
+        <f t="shared" ref="J5:J17" si="8">E5-I5</f>
         <v>1.9378413985383425E-2</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K18" si="9">(E5-I5)/A5</f>
+        <f t="shared" ref="K5:K17" si="9">(E5-I5)/A5</f>
         <v>1.9378413985383425</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L18" si="10">(G5+K5)/2</f>
+        <f t="shared" ref="L5:L17" si="10">(G5+K5)/2</f>
         <v>1.9421811217919416</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ref="A6:A18" si="11">A5/10</f>
+        <f t="shared" ref="A6:A17" si="11">A5/10</f>
         <v>1E-3</v>
       </c>
       <c r="B6">
@@ -2981,8 +2981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27599EA-7190-4F38-BF6B-114135086D84}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>3.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -3241,47 +3241,47 @@
       </c>
       <c r="B24">
         <f>$B$21</f>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C24">
         <f>A24+B24</f>
-        <v>3.6</v>
+        <v>12.1</v>
       </c>
       <c r="D24">
         <f>(-2.10905349794194*10^-5)*C24^4+0.00212448559670755*C24^3+-0.0835570987654265*C24^2+1.53829732510282*C24-1.324843621399</f>
-        <v>3.2257043489712123</v>
+        <v>8.366520662499882</v>
       </c>
       <c r="E24">
         <f>(-2.10905349794194*10^-5)*B24^4+0.00212448559670755*B24^3+-0.0835570987654265*B24^2+1.53829732510282*B24-1.324843621399</f>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F24">
         <f>D24-E24</f>
-        <v>0.10215937083332971</v>
+        <v>3.0240827109052404E-2</v>
       </c>
       <c r="G24">
-        <f>(D24-E24)/A24</f>
-        <v>1.0215937083332971</v>
+        <f>F24/A24</f>
+        <v>0.30240827109052404</v>
       </c>
       <c r="H24">
         <f>B24-A24</f>
-        <v>3.4</v>
+        <v>11.9</v>
       </c>
       <c r="I24">
         <f>(-2.10905349794194*10^-5)*H24^4+0.00212448559670755*H24^3+-0.0835570987654265*H24^2+1.53829732510282*H24-1.324843621399</f>
-        <v>3.0201296000000246</v>
+        <v>8.3055330472735474</v>
       </c>
       <c r="J24">
         <f>E24-I24</f>
-        <v>0.10341537813785795</v>
+        <v>3.0746788117282264E-2</v>
       </c>
       <c r="K24">
         <f>(E24-I24)/A24</f>
-        <v>1.0341537813785795</v>
+        <v>0.30746788117282264</v>
       </c>
       <c r="L24">
         <f>(G24+K24)/2</f>
-        <v>1.0278737448559383</v>
+        <v>0.30493807613167334</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -3291,47 +3291,47 @@
       </c>
       <c r="B25">
         <f t="shared" ref="B25:B37" si="7">$B$21</f>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C25">
         <f t="shared" ref="C25:C37" si="8">A25+B25</f>
-        <v>3.51</v>
+        <v>12.01</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:E37" si="9">(-2.10905349794194*10^-5)*C25^4+0.00212448559670755*C25^3+-0.0835570987654265*C25^2+1.53829732510282*C25-1.324843621399</f>
-        <v>3.1338172544782052</v>
+        <f t="shared" ref="D25:D37" si="9">(-2.10905349794194*10^-5)*C25^4+0.00212448559670755*C25^3+-0.0835570987654265*C25^2+1.53829732510282*C25-1.324843621399</f>
+        <v>8.339326576266135</v>
       </c>
       <c r="E25">
         <f t="shared" ref="E25:E37" si="10">(-2.10905349794194*10^-5)*B25^4+0.00212448559670755*B25^3+-0.0835570987654265*B25^2+1.53829732510282*B25-1.324843621399</f>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F25">
         <f t="shared" ref="F25:F37" si="11">D25-E25</f>
-        <v>1.0272276340322684E-2</v>
+        <v>3.0467408753054315E-3</v>
       </c>
       <c r="G25">
-        <f t="shared" ref="G25:G37" si="12">(D25-E25)/A25</f>
-        <v>1.0272276340322684</v>
+        <f t="shared" ref="G25:G37" si="12">F25/A25</f>
+        <v>0.30467408753054315</v>
       </c>
       <c r="H25">
         <f t="shared" ref="H25:H37" si="13">B25-A25</f>
-        <v>3.49</v>
+        <v>11.99</v>
       </c>
       <c r="I25">
         <f t="shared" ref="I25:I37" si="14">(-2.10905349794194*10^-5)*H25^4+0.00212448559670755*H25^3+-0.0835570987654265*H25^2+1.53829732510282*H25-1.324843621399</f>
-        <v>3.1132601417662729</v>
+        <v>8.3332280349472079</v>
       </c>
       <c r="J25">
         <f t="shared" ref="J25:J37" si="15">E25-I25</f>
-        <v>1.0284836371609707E-2</v>
+        <v>3.0518004436217439E-3</v>
       </c>
       <c r="K25">
         <f t="shared" ref="K25:K37" si="16">(E25-I25)/A25</f>
-        <v>1.0284836371609707</v>
+        <v>0.30518004436217439</v>
       </c>
       <c r="L25">
         <f t="shared" ref="L25:L37" si="17">(G25+K25)/2</f>
-        <v>1.0278556355966195</v>
+        <v>0.30492706594635877</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -3341,47 +3341,47 @@
       </c>
       <c r="B26">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <f t="shared" si="8"/>
-        <v>3.5009999999999999</v>
+        <v>12.000999999999999</v>
       </c>
       <c r="D26">
         <f t="shared" si="9"/>
-        <v>3.1245727707922324</v>
+        <v>8.3365847370488328</v>
       </c>
       <c r="E26">
         <f t="shared" si="10"/>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F26">
         <f t="shared" si="11"/>
-        <v>1.0277926543498239E-3</v>
+        <v>3.0490165800323155E-4</v>
       </c>
       <c r="G26">
         <f t="shared" si="12"/>
-        <v>1.0277926543498239</v>
+        <v>0.30490165800323155</v>
       </c>
       <c r="H26">
         <f t="shared" si="13"/>
-        <v>3.4990000000000001</v>
+        <v>11.999000000000001</v>
       </c>
       <c r="I26">
         <f t="shared" si="14"/>
-        <v>3.1225170598832239</v>
+        <v>8.3359748831371459</v>
       </c>
       <c r="J26">
         <f t="shared" si="15"/>
-        <v>1.0279182546586441E-3</v>
+        <v>3.0495225368376566E-4</v>
       </c>
       <c r="K26">
         <f t="shared" si="16"/>
-        <v>1.0279182546586441</v>
+        <v>0.30495225368376566</v>
       </c>
       <c r="L26">
         <f t="shared" si="17"/>
-        <v>1.027855454504234</v>
+        <v>0.3049269558434986</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -3391,47 +3391,47 @@
       </c>
       <c r="B27">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <f t="shared" si="8"/>
-        <v>3.5001000000000002</v>
+        <v>12.0001</v>
       </c>
       <c r="D27">
         <f t="shared" si="9"/>
-        <v>3.1236477630551507</v>
+        <v>8.3363103278333259</v>
       </c>
       <c r="E27">
         <f t="shared" si="10"/>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F27">
         <f t="shared" si="11"/>
-        <v>1.0278491726811723E-4</v>
+        <v>3.0492442496310446E-5</v>
       </c>
       <c r="G27">
         <f t="shared" si="12"/>
-        <v>1.0278491726811723</v>
+        <v>0.30492442496310446</v>
       </c>
       <c r="H27">
         <f t="shared" si="13"/>
-        <v>3.4998999999999998</v>
+        <v>11.9999</v>
       </c>
       <c r="I27">
         <f t="shared" si="14"/>
-        <v>3.1234421919646111</v>
+        <v>8.3362493424423789</v>
       </c>
       <c r="J27">
         <f t="shared" si="15"/>
-        <v>1.0278617327141859E-4</v>
+        <v>3.0492948450699942E-5</v>
       </c>
       <c r="K27">
         <f t="shared" si="16"/>
-        <v>1.0278617327141859</v>
+        <v>0.30492948450699942</v>
       </c>
       <c r="L27">
         <f t="shared" si="17"/>
-        <v>1.0278554526976791</v>
+        <v>0.30492695473505194</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -3441,47 +3441,47 @@
       </c>
       <c r="B28">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C28">
         <f t="shared" si="8"/>
-        <v>3.5000100000000001</v>
+        <v>12.00001</v>
       </c>
       <c r="D28">
         <f t="shared" si="9"/>
-        <v>3.1235552566861289</v>
+        <v>8.3362828846578498</v>
       </c>
       <c r="E28">
         <f t="shared" si="10"/>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F28">
         <f t="shared" si="11"/>
-        <v>1.0278548246311914E-5</v>
+        <v>3.0492670202164618E-6</v>
       </c>
       <c r="G28">
         <f t="shared" si="12"/>
-        <v>1.0278548246311914</v>
+        <v>0.30492670202164618</v>
       </c>
       <c r="H28">
         <f t="shared" si="13"/>
-        <v>3.4999899999999999</v>
+        <v>11.99999</v>
       </c>
       <c r="I28">
         <f t="shared" si="14"/>
-        <v>3.1235346995770756</v>
+        <v>8.3362767861187539</v>
       </c>
       <c r="J28">
         <f t="shared" si="15"/>
-        <v>1.0278560806931125E-5</v>
+        <v>3.0492720757280267E-6</v>
       </c>
       <c r="K28">
         <f t="shared" si="16"/>
-        <v>1.0278560806931125</v>
+        <v>0.30492720757280267</v>
       </c>
       <c r="L28">
         <f t="shared" si="17"/>
-        <v>1.0278554526621519</v>
+        <v>0.30492695479722443</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -3491,47 +3491,47 @@
       </c>
       <c r="B29">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C29">
         <f t="shared" si="8"/>
-        <v>3.5000010000000001</v>
+        <v>12.000000999999999</v>
       </c>
       <c r="D29">
         <f t="shared" si="9"/>
-        <v>3.1235460059932727</v>
+        <v>8.3362801403177613</v>
       </c>
       <c r="E29">
         <f t="shared" si="10"/>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F29">
         <f t="shared" si="11"/>
-        <v>1.0278553901343912E-6</v>
+        <v>3.0492693170458551E-7</v>
       </c>
       <c r="G29">
         <f t="shared" si="12"/>
-        <v>1.027855390134391</v>
+        <v>0.30492693170458546</v>
       </c>
       <c r="H29">
         <f t="shared" si="13"/>
-        <v>3.4999989999999999</v>
+        <v>11.999999000000001</v>
       </c>
       <c r="I29">
         <f t="shared" si="14"/>
-        <v>3.1235439502823663</v>
+        <v>8.33627953046385</v>
       </c>
       <c r="J29">
         <f t="shared" si="15"/>
-        <v>1.0278555162557268E-6</v>
+        <v>3.0492697966622018E-7</v>
       </c>
       <c r="K29">
         <f t="shared" si="16"/>
-        <v>1.0278555162557266</v>
+        <v>0.30492697966622012</v>
       </c>
       <c r="L29">
         <f t="shared" si="17"/>
-        <v>1.0278554531950588</v>
+        <v>0.30492695568540279</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -3541,47 +3541,47 @@
       </c>
       <c r="B30">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <f t="shared" si="8"/>
-        <v>3.5000000999999998</v>
+        <v>12.000000099999999</v>
       </c>
       <c r="D30">
         <f t="shared" si="9"/>
-        <v>3.1235450809234271</v>
+        <v>8.3362798658835242</v>
       </c>
       <c r="E30">
         <f t="shared" si="10"/>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F30">
         <f t="shared" si="11"/>
-        <v>1.0278554452014532E-7</v>
+        <v>3.0492694591544023E-8</v>
       </c>
       <c r="G30">
         <f t="shared" si="12"/>
-        <v>1.027855445201453</v>
+        <v>0.30492694591544017</v>
       </c>
       <c r="H30">
         <f t="shared" si="13"/>
-        <v>3.4999999000000002</v>
+        <v>11.999999900000001</v>
       </c>
       <c r="I30">
         <f t="shared" si="14"/>
-        <v>3.1235448753523363</v>
+        <v>8.336279804898135</v>
       </c>
       <c r="J30">
         <f t="shared" si="15"/>
-        <v>1.0278554629650216E-7</v>
+        <v>3.0492694591544023E-8</v>
       </c>
       <c r="K30">
         <f t="shared" si="16"/>
-        <v>1.0278554629650214</v>
+        <v>0.30492694591544017</v>
       </c>
       <c r="L30">
         <f t="shared" si="17"/>
-        <v>1.0278554540832372</v>
+        <v>0.30492694591544017</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -3591,47 +3591,47 @@
       </c>
       <c r="B31">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <f t="shared" si="8"/>
-        <v>3.5000000099999999</v>
+        <v>12.000000010000001</v>
       </c>
       <c r="D31">
         <f t="shared" si="9"/>
-        <v>3.1235449884164366</v>
+        <v>8.3362798384401007</v>
       </c>
       <c r="E31">
         <f t="shared" si="10"/>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F31">
         <f t="shared" si="11"/>
-        <v>1.0278554007925322E-8</v>
+        <v>3.0492710578755577E-9</v>
       </c>
       <c r="G31">
         <f t="shared" si="12"/>
-        <v>1.027855400792532</v>
+        <v>0.30492710578755572</v>
       </c>
       <c r="H31">
         <f t="shared" si="13"/>
-        <v>3.4999999900000001</v>
+        <v>11.999999989999999</v>
       </c>
       <c r="I31">
         <f t="shared" si="14"/>
-        <v>3.1235449678593286</v>
+        <v>8.3362798323415621</v>
       </c>
       <c r="J31">
         <f t="shared" si="15"/>
-        <v>1.0278554007925322E-8</v>
+        <v>3.0492675051618789E-9</v>
       </c>
       <c r="K31">
         <f t="shared" si="16"/>
-        <v>1.027855400792532</v>
+        <v>0.30492675051618784</v>
       </c>
       <c r="L31">
         <f t="shared" si="17"/>
-        <v>1.027855400792532</v>
+        <v>0.30492692815187178</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -3641,47 +3641,47 @@
       </c>
       <c r="B32">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C32">
         <f t="shared" si="8"/>
-        <v>3.5000000010000001</v>
+        <v>12.000000001</v>
       </c>
       <c r="D32">
         <f t="shared" si="9"/>
-        <v>3.1235449791657386</v>
+        <v>8.3362798356957573</v>
       </c>
       <c r="E32">
         <f t="shared" si="10"/>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F32">
         <f t="shared" si="11"/>
-        <v>1.027856022517426E-9</v>
+        <v>3.0492763869460759E-10</v>
       </c>
       <c r="G32">
         <f t="shared" si="12"/>
-        <v>1.0278560225174258</v>
+        <v>0.30492763869460754</v>
       </c>
       <c r="H32">
         <f t="shared" si="13"/>
-        <v>3.4999999989999999</v>
+        <v>11.999999999</v>
       </c>
       <c r="I32">
         <f t="shared" si="14"/>
-        <v>3.1235449771100274</v>
+        <v>8.3362798350859038</v>
       </c>
       <c r="J32">
         <f t="shared" si="15"/>
-        <v>1.0278551343390063E-9</v>
+        <v>3.0492586233776819E-10</v>
       </c>
       <c r="K32">
         <f t="shared" si="16"/>
-        <v>1.0278551343390061</v>
+        <v>0.30492586233776814</v>
       </c>
       <c r="L32">
         <f t="shared" si="17"/>
-        <v>1.027855578428216</v>
+        <v>0.30492675051618784</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3691,47 +3691,47 @@
       </c>
       <c r="B33">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C33">
         <f t="shared" si="8"/>
-        <v>3.5000000001</v>
+        <v>12.0000000001</v>
       </c>
       <c r="D33">
         <f t="shared" si="9"/>
-        <v>3.1235449782406688</v>
+        <v>8.3362798354213226</v>
       </c>
       <c r="E33">
         <f t="shared" si="10"/>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F33">
         <f t="shared" si="11"/>
-        <v>1.0278622397663639E-10</v>
+        <v>3.0492941505144699E-11</v>
       </c>
       <c r="G33">
         <f t="shared" si="12"/>
-        <v>1.0278622397663637</v>
+        <v>0.30492941505144688</v>
       </c>
       <c r="H33">
         <f t="shared" si="13"/>
-        <v>3.4999999999</v>
+        <v>11.9999999999</v>
       </c>
       <c r="I33">
         <f t="shared" si="14"/>
-        <v>3.1235449780350972</v>
+        <v>8.3362798353603385</v>
       </c>
       <c r="J33">
         <f t="shared" si="15"/>
-        <v>1.0278533579821669E-10</v>
+        <v>3.0491165148305299E-11</v>
       </c>
       <c r="K33">
         <f t="shared" si="16"/>
-        <v>1.0278533579821667</v>
+        <v>0.30491165148305288</v>
       </c>
       <c r="L33">
         <f t="shared" si="17"/>
-        <v>1.0278577988742652</v>
+        <v>0.30492053326724988</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -3741,47 +3741,47 @@
       </c>
       <c r="B34">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C34">
         <f t="shared" si="8"/>
-        <v>3.50000000001</v>
+        <v>12.000000000009999</v>
       </c>
       <c r="D34">
         <f t="shared" si="9"/>
-        <v>3.1235449781481606</v>
+        <v>8.3362798353938796</v>
       </c>
       <c r="E34">
         <f t="shared" si="10"/>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F34">
         <f t="shared" si="11"/>
-        <v>1.0278000672769849E-11</v>
+        <v>3.05000469325023E-12</v>
       </c>
       <c r="G34">
         <f t="shared" si="12"/>
-        <v>1.0278000672769847</v>
+        <v>0.30500046932502295</v>
       </c>
       <c r="H34">
         <f t="shared" si="13"/>
-        <v>3.49999999999</v>
+        <v>11.999999999990001</v>
       </c>
       <c r="I34">
         <f t="shared" si="14"/>
-        <v>3.1235449781276037</v>
+        <v>8.3362798353877832</v>
       </c>
       <c r="J34">
         <f t="shared" si="15"/>
-        <v>1.0278888851189549E-11</v>
+        <v>3.0464519795714295E-12</v>
       </c>
       <c r="K34">
         <f t="shared" si="16"/>
-        <v>1.0278888851189547</v>
+        <v>0.3046451979571429</v>
       </c>
       <c r="L34">
         <f t="shared" si="17"/>
-        <v>1.0278444761979697</v>
+        <v>0.30482283364108292</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -3791,47 +3791,47 @@
       </c>
       <c r="B35">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <f t="shared" si="8"/>
-        <v>3.5000000000010001</v>
+        <v>12.000000000001</v>
       </c>
       <c r="D35">
         <f t="shared" si="9"/>
-        <v>3.1235449781389102</v>
+        <v>8.3362798353911369</v>
       </c>
       <c r="E35">
         <f t="shared" si="10"/>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F35">
         <f t="shared" si="11"/>
-        <v>1.0276224315930449E-12</v>
+        <v>3.0730973321624333E-13</v>
       </c>
       <c r="G35">
         <f t="shared" si="12"/>
-        <v>1.0276224315930447</v>
+        <v>0.30730973321624327</v>
       </c>
       <c r="H35">
         <f t="shared" si="13"/>
-        <v>3.4999999999989999</v>
+        <v>11.999999999999</v>
       </c>
       <c r="I35">
         <f t="shared" si="14"/>
-        <v>3.1235449781368549</v>
+        <v>8.3362798353905241</v>
       </c>
       <c r="J35">
         <f t="shared" si="15"/>
-        <v>1.0276224315930449E-12</v>
+        <v>3.0553337637684308E-13</v>
       </c>
       <c r="K35">
         <f t="shared" si="16"/>
-        <v>1.0276224315930447</v>
+        <v>0.30553337637684302</v>
       </c>
       <c r="L35">
         <f t="shared" si="17"/>
-        <v>1.0276224315930447</v>
+        <v>0.30642155479654315</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -3841,47 +3841,47 @@
       </c>
       <c r="B36">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C36">
         <f t="shared" si="8"/>
-        <v>3.5000000000000999</v>
+        <v>12.000000000000099</v>
       </c>
       <c r="D36">
         <f t="shared" si="9"/>
-        <v>3.1235449781379856</v>
+        <v>8.3362798353908598</v>
       </c>
       <c r="E36">
         <f t="shared" si="10"/>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F36">
         <f t="shared" si="11"/>
-        <v>1.0302869668521453E-13</v>
+        <v>3.0198066269804258E-14</v>
       </c>
       <c r="G36">
         <f t="shared" si="12"/>
-        <v>1.030286966852145</v>
+        <v>0.30198066269804252</v>
       </c>
       <c r="H36">
         <f t="shared" si="13"/>
-        <v>3.4999999999999001</v>
+        <v>11.999999999999901</v>
       </c>
       <c r="I36">
         <f t="shared" si="14"/>
-        <v>3.1235449781377804</v>
+        <v>8.3362798353907994</v>
       </c>
       <c r="J36">
         <f t="shared" si="15"/>
-        <v>1.021405182655144E-13</v>
+        <v>3.0198066269804258E-14</v>
       </c>
       <c r="K36">
         <f t="shared" si="16"/>
-        <v>1.0214051826551438</v>
+        <v>0.30198066269804252</v>
       </c>
       <c r="L36">
         <f t="shared" si="17"/>
-        <v>1.0258460747536444</v>
+        <v>0.30198066269804252</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -3891,47 +3891,47 @@
       </c>
       <c r="B37">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="C37">
         <f t="shared" si="8"/>
-        <v>3.5000000000000102</v>
+        <v>12.000000000000011</v>
       </c>
       <c r="D37">
         <f t="shared" si="9"/>
-        <v>3.1235449781378923</v>
+        <v>8.3362798353908349</v>
       </c>
       <c r="E37">
         <f t="shared" si="10"/>
-        <v>3.1235449781378826</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="F37">
         <f t="shared" si="11"/>
-        <v>9.7699626167013776E-15</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <f t="shared" si="12"/>
-        <v>0.97699626167013764</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <f t="shared" si="13"/>
-        <v>3.4999999999999898</v>
+        <v>11.999999999999989</v>
       </c>
       <c r="I37">
         <f t="shared" si="14"/>
-        <v>3.1235449781378719</v>
+        <v>8.3362798353908296</v>
       </c>
       <c r="J37">
         <f t="shared" si="15"/>
-        <v>1.0658141036401503E-14</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <f t="shared" si="16"/>
-        <v>1.0658141036401501</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <f t="shared" si="17"/>
-        <v>1.0214051826551438</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Day12Excel/Lab12.xlsx
+++ b/Day12Excel/Lab12.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveAugie\OneDrive - Augustana College\Study\MATH440\Day12Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\MATH440\Day12Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D899F6F1-0FD4-4780-B073-BCEED508FCB9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{69BFF666-3B79-4246-8EB5-46E9A849F946}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -80,7 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,6 +274,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -395,6 +395,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1397,7 +1398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF9BF645-C04E-4596-9961-CF4EB414E3EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2210,21 +2211,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9637D97D-24B5-4946-A7FB-2CFB7168B190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" customWidth="1"/>
-    <col min="9" max="9" width="30.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -2973,15 +2976,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27599EA-7190-4F38-BF6B-114135086D84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3935,7 +3942,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="78" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>